--- a/data/trans_orig/P1001-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27926</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18518</v>
+        <v>19317</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39253</v>
+        <v>39138</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1022878190491893</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0678282786714972</v>
+        <v>0.07075622419838294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1437795245665673</v>
+        <v>0.1433589669440631</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -765,19 +765,19 @@
         <v>31455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22285</v>
+        <v>22099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43695</v>
+        <v>43155</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1205904825292514</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08543487372900854</v>
+        <v>0.08472167446112397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1675195062886315</v>
+        <v>0.1654477179324689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -786,19 +786,19 @@
         <v>59380</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46091</v>
+        <v>45658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76172</v>
+        <v>76250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1112304984763274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08633729608239148</v>
+        <v>0.0855269984350273</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1426839075166535</v>
+        <v>0.1428301559304256</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>245084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>233757</v>
+        <v>233872</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>254492</v>
+        <v>253693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8977121809508107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8562204754334326</v>
+        <v>0.8566410330559373</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9321717213285028</v>
+        <v>0.9292437758016172</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>216</v>
@@ -836,19 +836,19 @@
         <v>229383</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217143</v>
+        <v>217683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>238553</v>
+        <v>238739</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8794095174707486</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8324804937113688</v>
+        <v>0.8345522820675313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9145651262709916</v>
+        <v>0.9152783255388762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -857,19 +857,19 @@
         <v>474468</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>457676</v>
+        <v>457598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>487757</v>
+        <v>488190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8887695015236726</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8573160924833463</v>
+        <v>0.8571698440695743</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9136627039176085</v>
+        <v>0.9144730015649726</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>40752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29328</v>
+        <v>28499</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54650</v>
+        <v>53345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08264948782220122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05948045653557164</v>
+        <v>0.05779833885590841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1108357729979982</v>
+        <v>0.1081877056408156</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -982,19 +982,19 @@
         <v>75950</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61975</v>
+        <v>60334</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94544</v>
+        <v>93867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1507101488597402</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1229782062540701</v>
+        <v>0.1197230259564618</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1876056600575272</v>
+        <v>0.1862620549040221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -1003,19 +1003,19 @@
         <v>116703</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96776</v>
+        <v>96583</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138859</v>
+        <v>138909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1170509669409727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09706472261436909</v>
+        <v>0.09687105326036802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1392732496341276</v>
+        <v>0.1393237079280092</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>452323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>438425</v>
+        <v>439730</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463747</v>
+        <v>464576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9173505121777987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8891642270020018</v>
+        <v>0.8918122943591844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9405195434644283</v>
+        <v>0.9422016611440917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>424</v>
@@ -1053,19 +1053,19 @@
         <v>427999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>409405</v>
+        <v>410082</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>441974</v>
+        <v>443615</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8492898511402599</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8123943399424727</v>
+        <v>0.8137379450959777</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8770217937459298</v>
+        <v>0.8802769740435382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>851</v>
@@ -1074,19 +1074,19 @@
         <v>880321</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858165</v>
+        <v>858115</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>900248</v>
+        <v>900441</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8829490330590274</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8607267503658727</v>
+        <v>0.8606762920719915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.902935277385631</v>
+        <v>0.9031289467396324</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2951</v>
+        <v>3068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14934</v>
+        <v>16175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02378409576669875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009256561104038278</v>
+        <v>0.009621021212773974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0468361139911781</v>
+        <v>0.05073103782960293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>12406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7128</v>
+        <v>7170</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20992</v>
+        <v>22654</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03698770099545601</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02125209867147785</v>
+        <v>0.02137810853178079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06258661625217721</v>
+        <v>0.06754210124094653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1220,19 +1220,19 @@
         <v>19990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12099</v>
+        <v>12124</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30086</v>
+        <v>29778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03055305884900267</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01849242846241872</v>
+        <v>0.0185305665594063</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04598433245632896</v>
+        <v>0.0455141004659124</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>311263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303912</v>
+        <v>302671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315895</v>
+        <v>315778</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9762159042333013</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9531638860088222</v>
+        <v>0.9492689621703971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9907434388959618</v>
+        <v>0.990378978787226</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>323</v>
@@ -1270,19 +1270,19 @@
         <v>323006</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314420</v>
+        <v>312758</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328284</v>
+        <v>328242</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.963012299004544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9374133837478228</v>
+        <v>0.9324578987590534</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9787479013285221</v>
+        <v>0.9786218914682192</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>626</v>
@@ -1291,19 +1291,19 @@
         <v>634268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>624172</v>
+        <v>624480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642159</v>
+        <v>642134</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9694469411509973</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9540156675436711</v>
+        <v>0.9544858995340876</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9815075715375813</v>
+        <v>0.9814694334405937</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4992</v>
+        <v>4315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17984</v>
+        <v>17015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02651172679748892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01391694350652685</v>
+        <v>0.01203005721793458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05013930710146263</v>
+        <v>0.04743942633346399</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1416,19 +1416,19 @@
         <v>28522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19523</v>
+        <v>20169</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39196</v>
+        <v>40896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07678315174424755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05255677209659428</v>
+        <v>0.05429806764861908</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1055212018122297</v>
+        <v>0.1100963864262299</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -1437,19 +1437,19 @@
         <v>38031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27383</v>
+        <v>27614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50742</v>
+        <v>52779</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05208757688530033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03750443073033507</v>
+        <v>0.03782124890352023</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06949694476897027</v>
+        <v>0.07228742486035111</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>349162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340687</v>
+        <v>341656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353679</v>
+        <v>354356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9734882732025111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9498606928985369</v>
+        <v>0.9525605736665353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9860830564934732</v>
+        <v>0.9879699427820653</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>356</v>
@@ -1487,19 +1487,19 @@
         <v>342934</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>332260</v>
+        <v>330560</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>351933</v>
+        <v>351287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9232168482557525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8944787981877704</v>
+        <v>0.8899036135737701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9474432279034057</v>
+        <v>0.945701932351381</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>709</v>
@@ -1508,19 +1508,19 @@
         <v>692096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>679385</v>
+        <v>677348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>702744</v>
+        <v>702513</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9479124231146997</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9305030552310298</v>
+        <v>0.9277125751396499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9624955692696651</v>
+        <v>0.9621787510964799</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13379</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7944</v>
+        <v>7785</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21488</v>
+        <v>21148</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06580598806359025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03907260475894882</v>
+        <v>0.03829404304243959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1056941200859816</v>
+        <v>0.1040178147892715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>14853</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8194</v>
+        <v>8382</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24218</v>
+        <v>24519</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07152191202509343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03945513261777366</v>
+        <v>0.04036338015457726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1166177519144354</v>
+        <v>0.1180676394288131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1654,19 +1654,19 @@
         <v>28232</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20034</v>
+        <v>19809</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38972</v>
+        <v>40255</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06869426953107938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04874843049398433</v>
+        <v>0.04819874947541745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09482767323076405</v>
+        <v>0.09795058101523012</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>189929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>181820</v>
+        <v>182160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195364</v>
+        <v>195523</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9341940119364097</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8943058799140184</v>
+        <v>0.8959821852107287</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9609273952410512</v>
+        <v>0.9617059569575604</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -1704,19 +1704,19 @@
         <v>192815</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183450</v>
+        <v>183149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199474</v>
+        <v>199286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9284780879749066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8833822480855649</v>
+        <v>0.8819323605711867</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9605448673822267</v>
+        <v>0.9596366198454223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>375</v>
@@ -1725,19 +1725,19 @@
         <v>382744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>372004</v>
+        <v>370721</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>390942</v>
+        <v>391167</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9313057304689206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9051723267692356</v>
+        <v>0.90204941898477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9512515695060155</v>
+        <v>0.9518012505245826</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>883</v>
+        <v>949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8895</v>
+        <v>8254</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01335606726343498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003260254543174067</v>
+        <v>0.003504981736826094</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0328444057055489</v>
+        <v>0.03047965524159169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1850,19 +1850,19 @@
         <v>12514</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6943</v>
+        <v>7043</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20751</v>
+        <v>21520</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04498996819630165</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02496070616412476</v>
+        <v>0.02532304037255579</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07460624005549778</v>
+        <v>0.07737167955081026</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1871,19 +1871,19 @@
         <v>16131</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10158</v>
+        <v>9491</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26241</v>
+        <v>26251</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02938430214060711</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01850471886020335</v>
+        <v>0.01728949273888295</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04780134758102288</v>
+        <v>0.04782059795228886</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>267194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261916</v>
+        <v>262557</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269928</v>
+        <v>269862</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.986643932736565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9671555942944512</v>
+        <v>0.9695203447584083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9967397454568259</v>
+        <v>0.9964950182631739</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -1921,19 +1921,19 @@
         <v>265630</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257393</v>
+        <v>256624</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271201</v>
+        <v>271101</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9550100318036984</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9253937599445022</v>
+        <v>0.9226283204491897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9750392938358747</v>
+        <v>0.9746769596274442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>520</v>
@@ -1942,19 +1942,19 @@
         <v>532824</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>522714</v>
+        <v>522704</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>538797</v>
+        <v>539464</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9706156978593928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9521986524189771</v>
+        <v>0.952179402047711</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9814952811397966</v>
+        <v>0.982710507261117</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>34719</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24452</v>
+        <v>24589</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48855</v>
+        <v>46443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05645041380826587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03975718150647078</v>
+        <v>0.03998045689264992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07943478557981398</v>
+        <v>0.07551450466284931</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -2067,19 +2067,19 @@
         <v>66877</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53357</v>
+        <v>52163</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84369</v>
+        <v>82807</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1047865673578089</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08360351892729991</v>
+        <v>0.08173159659849376</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1321947893014873</v>
+        <v>0.1297476978870858</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>103</v>
@@ -2088,19 +2088,19 @@
         <v>101595</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81812</v>
+        <v>84540</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>120776</v>
+        <v>120916</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08106573465986813</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.065280099318139</v>
+        <v>0.06745665644420137</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09637024394573056</v>
+        <v>0.09648222068718744</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>580308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>566172</v>
+        <v>568584</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>590575</v>
+        <v>590438</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9435495861917341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9205652144201866</v>
+        <v>0.9244854953371506</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9602428184935294</v>
+        <v>0.96001954310735</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>553</v>
@@ -2138,19 +2138,19 @@
         <v>571342</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>553850</v>
+        <v>555412</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>584862</v>
+        <v>586056</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8952134326421911</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8678052106985131</v>
+        <v>0.8702523021129145</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9163964810727004</v>
+        <v>0.9182684034015064</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1116</v>
@@ -2159,19 +2159,19 @@
         <v>1151651</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1132470</v>
+        <v>1132330</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1171434</v>
+        <v>1168706</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9189342653401319</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9036297560542694</v>
+        <v>0.9035177793128126</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9347199006818611</v>
+        <v>0.9325433435557988</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>60754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45907</v>
+        <v>47767</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76555</v>
+        <v>78537</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08168062857927628</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06172025681541354</v>
+        <v>0.06422073023147802</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1029253582779458</v>
+        <v>0.1055895504028962</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -2284,19 +2284,19 @@
         <v>75699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59444</v>
+        <v>60765</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>95448</v>
+        <v>94561</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09661540281319957</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07586915180751816</v>
+        <v>0.07755532241093657</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1218207118630459</v>
+        <v>0.120688963518043</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -2305,19 +2305,19 @@
         <v>136453</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115208</v>
+        <v>115182</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162264</v>
+        <v>159459</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08934219710195627</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07543238706899681</v>
+        <v>0.07541527278516805</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.106241892809335</v>
+        <v>0.1044050811106759</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>683041</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>667240</v>
+        <v>665258</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>697888</v>
+        <v>696028</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9183193714207237</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8970746417220543</v>
+        <v>0.8944104495971038</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9382797431845865</v>
+        <v>0.935779269768522</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>675</v>
@@ -2355,19 +2355,19 @@
         <v>707812</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>688063</v>
+        <v>688950</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>724067</v>
+        <v>722746</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9033845971868004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8781792881369541</v>
+        <v>0.8793110364819567</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9241308481924819</v>
+        <v>0.9224446775890633</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1350</v>
@@ -2376,19 +2376,19 @@
         <v>1390853</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1365042</v>
+        <v>1367847</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1412098</v>
+        <v>1412124</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9106578028980438</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.893758107190665</v>
+        <v>0.8955949188893242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9245676129310032</v>
+        <v>0.924584727214832</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>198238</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06050232505040523</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>308</v>
@@ -2501,19 +2501,19 @@
         <v>318275</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09418657804059452</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>504</v>
@@ -2522,19 +2522,19 @@
         <v>516514</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0776042139872592</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3078305</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3050038</v>
+        <v>3050920</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3103961</v>
+        <v>3105270</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9394976749495948</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9308707474721263</v>
+        <v>0.9311398394145648</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9473280441211561</v>
+        <v>0.9477275984847151</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2989</v>
@@ -2572,19 +2572,19 @@
         <v>3060922</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3026487</v>
+        <v>3023544</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3093065</v>
+        <v>3091474</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9058134219594055</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8956230791783869</v>
+        <v>0.8947523566417767</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9153253394593398</v>
+        <v>0.9148547104230352</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6007</v>
@@ -2593,19 +2593,19 @@
         <v>6139227</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6093938</v>
+        <v>6096119</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6180839</v>
+        <v>6185724</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9223957860127407</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9155911999751678</v>
+        <v>0.9159188877325688</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9286477181021235</v>
+        <v>0.9293817101491247</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>30289</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20561</v>
+        <v>20223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42664</v>
+        <v>41124</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1027649991925306</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06975922332193991</v>
+        <v>0.06861215823554144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1447527837850919</v>
+        <v>0.139528714657816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -2962,19 +2962,19 @@
         <v>61528</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47733</v>
+        <v>47069</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77732</v>
+        <v>77527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2141999530331131</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1661737154161914</v>
+        <v>0.1638625467773106</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2706123263607605</v>
+        <v>0.2698973677521986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -2983,19 +2983,19 @@
         <v>91817</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74220</v>
+        <v>74698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110534</v>
+        <v>110489</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1577651136979573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.127529168389554</v>
+        <v>0.1283514397746601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1899268058614117</v>
+        <v>0.1898487528606947</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>264449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252074</v>
+        <v>253614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274177</v>
+        <v>274515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8972350008074694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8552472162149071</v>
+        <v>0.860471285342184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9302407766780599</v>
+        <v>0.9313878417644585</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -3033,19 +3033,19 @@
         <v>225717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>209513</v>
+        <v>209718</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239512</v>
+        <v>240176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.785800046966887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7293876736392393</v>
+        <v>0.7301026322478015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8338262845838087</v>
+        <v>0.8361374532226894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>452</v>
@@ -3054,19 +3054,19 @@
         <v>490166</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471449</v>
+        <v>471494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>507763</v>
+        <v>507285</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8422348863020427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8100731941385885</v>
+        <v>0.8101512471393054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.872470831610446</v>
+        <v>0.8716485602253399</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>40375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28980</v>
+        <v>28770</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55979</v>
+        <v>56011</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07986684296383087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05732627936388259</v>
+        <v>0.05691135417139143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1107335453208334</v>
+        <v>0.1107974277514044</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -3179,19 +3179,19 @@
         <v>79265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62968</v>
+        <v>63128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97572</v>
+        <v>96257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1516432286659396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1204636439560511</v>
+        <v>0.1207713086948999</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1866654043653675</v>
+        <v>0.1841493710502558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -3200,19 +3200,19 @@
         <v>119640</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99725</v>
+        <v>99668</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142114</v>
+        <v>143723</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1163547644150321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09698668001560067</v>
+        <v>0.09693100712822618</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1382116109744771</v>
+        <v>0.1397758195831127</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>465152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449548</v>
+        <v>449516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476547</v>
+        <v>476757</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9201331570361692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8892664546791667</v>
+        <v>0.8892025722485957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9426737206361174</v>
+        <v>0.9430886458286085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>406</v>
@@ -3250,19 +3250,19 @@
         <v>443445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>425138</v>
+        <v>426453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459742</v>
+        <v>459582</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8483567713340604</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8133345956346324</v>
+        <v>0.8158506289497441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8795363560439489</v>
+        <v>0.8792286913050993</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>844</v>
@@ -3271,19 +3271,19 @@
         <v>908597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>886123</v>
+        <v>884514</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>928512</v>
+        <v>928569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8836452355849679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.861788389025523</v>
+        <v>0.8602241804168873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9030133199843995</v>
+        <v>0.9030689928717738</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>16692</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9807</v>
+        <v>10062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27226</v>
+        <v>26028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05151155732262761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03026313136927907</v>
+        <v>0.03104961801792033</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08402039854075539</v>
+        <v>0.08032311211531178</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3396,19 +3396,19 @@
         <v>37180</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26275</v>
+        <v>27297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50890</v>
+        <v>50430</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1090269804109213</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07704813836115317</v>
+        <v>0.08004657655118465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1492291073877366</v>
+        <v>0.1478793912351277</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -3417,19 +3417,19 @@
         <v>53872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40014</v>
+        <v>41863</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69303</v>
+        <v>70377</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08100323151328842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06016522095712044</v>
+        <v>0.06294495136336879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1042043187517755</v>
+        <v>0.1058199448934014</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>307354</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296820</v>
+        <v>298018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314239</v>
+        <v>313984</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9484884426773724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9159796014592438</v>
+        <v>0.9196768878846884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9697368686307209</v>
+        <v>0.9689503819820797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>282</v>
@@ -3467,19 +3467,19 @@
         <v>303840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>290130</v>
+        <v>290590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>314745</v>
+        <v>313723</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8909730195890787</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8507708926122631</v>
+        <v>0.8521206087648723</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9229518616388468</v>
+        <v>0.9199534234488155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>585</v>
@@ -3488,19 +3488,19 @@
         <v>611194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>595763</v>
+        <v>594689</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>625052</v>
+        <v>623203</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9189967684867115</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8957956812482245</v>
+        <v>0.8941800551065988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9398347790428798</v>
+        <v>0.9370550486366314</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>20542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12442</v>
+        <v>13342</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30381</v>
+        <v>32251</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05492702898941914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03326823252590538</v>
+        <v>0.03567539363843086</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08123561943133693</v>
+        <v>0.08623801619029353</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3613,19 +3613,19 @@
         <v>82997</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67057</v>
+        <v>67660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100585</v>
+        <v>98896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2133860243418701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1724055232027868</v>
+        <v>0.1739546349038224</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2586063895807438</v>
+        <v>0.2542621351730487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -3634,19 +3634,19 @@
         <v>103538</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85773</v>
+        <v>85794</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122401</v>
+        <v>122965</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.135711023255887</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1124246981070006</v>
+        <v>0.11245267575544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.160434732960434</v>
+        <v>0.1611736680975943</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>353440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343601</v>
+        <v>341731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361540</v>
+        <v>360640</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9450729710105809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9187643805686631</v>
+        <v>0.9137619838097064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9667317674740946</v>
+        <v>0.9643246063615691</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>291</v>
@@ -3684,19 +3684,19 @@
         <v>305954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288366</v>
+        <v>290055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321894</v>
+        <v>321291</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.78661397565813</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.741393610419256</v>
+        <v>0.7457378648269513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8275944767972132</v>
+        <v>0.8260453650961775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>616</v>
@@ -3705,19 +3705,19 @@
         <v>659395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>640532</v>
+        <v>639968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>677160</v>
+        <v>677139</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.864288976744113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.839565267039566</v>
+        <v>0.8388263319024055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8875753018929994</v>
+        <v>0.88754732424456</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>10273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5096</v>
+        <v>5383</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18601</v>
+        <v>18839</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04831464688613473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02396847235170426</v>
+        <v>0.02532000097454607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08748517487373281</v>
+        <v>0.08860354263230766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -3830,19 +3830,19 @@
         <v>39743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29687</v>
+        <v>29568</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54597</v>
+        <v>51375</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1809854508340203</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1351900749325748</v>
+        <v>0.1346482354426671</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2486295258596121</v>
+        <v>0.2339567832813491</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -3851,19 +3851,19 @@
         <v>50015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38012</v>
+        <v>38043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64413</v>
+        <v>64986</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1157202581905003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08794857635463167</v>
+        <v>0.08801954835959618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.149031224470642</v>
+        <v>0.1503579173414303</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>202345</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194017</v>
+        <v>193779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207522</v>
+        <v>207235</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9516853531138653</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9125148251262671</v>
+        <v>0.9113964573676925</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9760315276482958</v>
+        <v>0.9746799990254539</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>174</v>
@@ -3901,19 +3901,19 @@
         <v>179848</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164994</v>
+        <v>168216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189904</v>
+        <v>190023</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8190145491659797</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7513704741403878</v>
+        <v>0.7660432167186509</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8648099250674252</v>
+        <v>0.8653517645573329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>360</v>
@@ -3922,19 +3922,19 @@
         <v>382194</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>367796</v>
+        <v>367223</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394197</v>
+        <v>394166</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8842797418094998</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8509687755293583</v>
+        <v>0.8496420826585698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9120514236453684</v>
+        <v>0.9119804516404039</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>22486</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14337</v>
+        <v>14577</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34036</v>
+        <v>33269</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08238985966723392</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05253210145037888</v>
+        <v>0.05341150383256574</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1247082377729292</v>
+        <v>0.1218977270413359</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -4047,19 +4047,19 @@
         <v>31674</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21607</v>
+        <v>22154</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42276</v>
+        <v>42795</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1131084363181007</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07715934097804507</v>
+        <v>0.07911344986434021</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1509695687060596</v>
+        <v>0.1528228461460596</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -4068,19 +4068,19 @@
         <v>54160</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40851</v>
+        <v>41344</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68927</v>
+        <v>68042</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09794646606361784</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07387752166738723</v>
+        <v>0.07476843622923962</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.124652081936181</v>
+        <v>0.1230512254642565</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>250441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238891</v>
+        <v>239658</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>258590</v>
+        <v>258350</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9176101403327661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8752917622270709</v>
+        <v>0.8781022729586642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9474678985496211</v>
+        <v>0.9465884961674343</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -4118,19 +4118,19 @@
         <v>248357</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>237755</v>
+        <v>237236</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258424</v>
+        <v>257877</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8868915636818994</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8490304312939408</v>
+        <v>0.8471771538539404</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9228406590219549</v>
+        <v>0.9208865501356597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>477</v>
@@ -4139,19 +4139,19 @@
         <v>498798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>484031</v>
+        <v>484916</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>512107</v>
+        <v>511614</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9020535339363822</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.875347918063819</v>
+        <v>0.8769487745357435</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9261224783326127</v>
+        <v>0.9252315637707603</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>32840</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23372</v>
+        <v>22668</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47048</v>
+        <v>46138</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04954790028233576</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03526244987968883</v>
+        <v>0.0342006438621312</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07098423948334386</v>
+        <v>0.06961151719563932</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -4264,19 +4264,19 @@
         <v>55947</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41797</v>
+        <v>41537</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71540</v>
+        <v>72416</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08074233560473677</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0603214704094005</v>
+        <v>0.05994524902975969</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1032461317790897</v>
+        <v>0.1045101266513647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -4285,19 +4285,19 @@
         <v>88787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70646</v>
+        <v>72164</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109996</v>
+        <v>108689</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06549164451952606</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05211014653475853</v>
+        <v>0.05323002191917776</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08113641911573982</v>
+        <v>0.08017181485956844</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>629948</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>615740</v>
+        <v>616650</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>639416</v>
+        <v>640120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9504520997176642</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.929015760516656</v>
+        <v>0.9303884828043606</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.964737550120311</v>
+        <v>0.9657993561378688</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>585</v>
@@ -4335,19 +4335,19 @@
         <v>636961</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>621368</v>
+        <v>620492</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>651111</v>
+        <v>651371</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9192576643952632</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8967538682209095</v>
+        <v>0.8954898733486352</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9396785295905995</v>
+        <v>0.9400547509702403</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1172</v>
@@ -4356,19 +4356,19 @@
         <v>1266909</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1245700</v>
+        <v>1247007</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1285050</v>
+        <v>1283532</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.934508355480474</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.91886358088426</v>
+        <v>0.9198281851404315</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9478898534652413</v>
+        <v>0.9467699780808222</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>69166</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53051</v>
+        <v>53491</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89674</v>
+        <v>87881</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08888440041241179</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06817509227117799</v>
+        <v>0.06874021985329613</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1152384013138685</v>
+        <v>0.1129347650764123</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>120</v>
@@ -4481,19 +4481,19 @@
         <v>132410</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111632</v>
+        <v>111688</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>156629</v>
+        <v>156528</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.160720649530448</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1354993734785115</v>
+        <v>0.1355683615889274</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1901170752735086</v>
+        <v>0.1899954093537241</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>179</v>
@@ -4502,19 +4502,19 @@
         <v>201577</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>177380</v>
+        <v>175688</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>231532</v>
+        <v>228823</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1258269614053044</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1107229741132702</v>
+        <v>0.1096669224525746</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1445255121528183</v>
+        <v>0.1428342786698169</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>708995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>688487</v>
+        <v>690280</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>725110</v>
+        <v>724670</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9111155995875883</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8847615986861312</v>
+        <v>0.8870652349235876</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.931824907728822</v>
+        <v>0.9312597801467039</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>637</v>
@@ -4552,19 +4552,19 @@
         <v>691443</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>667224</v>
+        <v>667325</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>712221</v>
+        <v>712165</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.839279350469552</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8098829247264916</v>
+        <v>0.8100045906462757</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8645006265214885</v>
+        <v>0.8644316384110722</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1294</v>
@@ -4573,19 +4573,19 @@
         <v>1400437</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1370482</v>
+        <v>1373191</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1424634</v>
+        <v>1426326</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8741730385946956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8554744878471819</v>
+        <v>0.8571657213301832</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8892770258867299</v>
+        <v>0.8903330775474255</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>242663</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>211831</v>
+        <v>212676</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>277517</v>
+        <v>276590</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07085478446367585</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06185224740457211</v>
+        <v>0.06209904754070825</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08103173190313216</v>
+        <v>0.08076124227616446</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>483</v>
@@ -4698,19 +4698,19 @@
         <v>520744</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>480618</v>
+        <v>472605</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>567174</v>
+        <v>562709</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1464282888609935</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1351450546101484</v>
+        <v>0.1328920882567099</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1594838828747832</v>
+        <v>0.1582282432118647</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>703</v>
@@ -4719,19 +4719,19 @@
         <v>763407</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>710302</v>
+        <v>708562</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>821464</v>
+        <v>817019</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.109353423541937</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1017464252094645</v>
+        <v>0.10149722128998</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1176697260291787</v>
+        <v>0.1170330096461511</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3182125</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3147271</v>
+        <v>3148198</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3212957</v>
+        <v>3212112</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9291452155363241</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.918968268096868</v>
+        <v>0.9192387577238356</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9381477525954279</v>
+        <v>0.9379009524592917</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2813</v>
@@ -4769,19 +4769,19 @@
         <v>3035565</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2989135</v>
+        <v>2993600</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3075691</v>
+        <v>3083704</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8535717111390065</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8405161171252167</v>
+        <v>0.8417717567881352</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8648549453898514</v>
+        <v>0.86710791174329</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5800</v>
@@ -4790,19 +4790,19 @@
         <v>6217690</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6159633</v>
+        <v>6164078</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6270795</v>
+        <v>6272535</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.890646576458063</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8823302739708214</v>
+        <v>0.8829669903538488</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8982535747905356</v>
+        <v>0.8985027787100199</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>47670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36010</v>
+        <v>36172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63030</v>
+        <v>60929</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1622743177935839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1225811062198701</v>
+        <v>0.123133075616259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2145607724223597</v>
+        <v>0.2074110884671491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -5159,19 +5159,19 @@
         <v>73729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56659</v>
+        <v>59170</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87565</v>
+        <v>88574</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2553790844733412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1962542539307387</v>
+        <v>0.2049503366752199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.303304916925302</v>
+        <v>0.3068003156946977</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -5180,19 +5180,19 @@
         <v>121399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104227</v>
+        <v>102678</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144671</v>
+        <v>143236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2084224495402317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1789411783139783</v>
+        <v>0.1762827361486997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2483773094217363</v>
+        <v>0.2459134865052232</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>246091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230731</v>
+        <v>232832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257751</v>
+        <v>257589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8377256822064161</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7854392275776403</v>
+        <v>0.7925889115328508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8774188937801298</v>
+        <v>0.8768669243837409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -5230,19 +5230,19 @@
         <v>214974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201138</v>
+        <v>200129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232044</v>
+        <v>229533</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7446209155266588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6966950830746979</v>
+        <v>0.6931996843053019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8037457460692612</v>
+        <v>0.79504966332478</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>430</v>
@@ -5251,19 +5251,19 @@
         <v>461065</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>437793</v>
+        <v>439228</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>478237</v>
+        <v>479786</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7915775504597683</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7516226905782634</v>
+        <v>0.7540865134947764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8210588216860216</v>
+        <v>0.8237172638513002</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>14505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8262</v>
+        <v>8180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22667</v>
+        <v>23237</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02886182160521678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0164391796547698</v>
+        <v>0.01627631878648726</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04510152127694346</v>
+        <v>0.04623530380901739</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -5376,19 +5376,19 @@
         <v>49082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36475</v>
+        <v>36707</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64366</v>
+        <v>65837</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09383106412452055</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0697309243659887</v>
+        <v>0.07017416219783797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1230515963352498</v>
+        <v>0.1258625534615277</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -5397,19 +5397,19 @@
         <v>63587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47681</v>
+        <v>48819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80270</v>
+        <v>80209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06199599122166338</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04648836921920566</v>
+        <v>0.04759728628127494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07826150083663637</v>
+        <v>0.07820269007087974</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>488070</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479908</v>
+        <v>479338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>494313</v>
+        <v>494395</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9711381783947832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9548984787230566</v>
+        <v>0.9537646961909825</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9835608203452303</v>
+        <v>0.9837236812135127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>440</v>
@@ -5447,19 +5447,19 @@
         <v>474002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458718</v>
+        <v>457247</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>486609</v>
+        <v>486377</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9061689358754794</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8769484036647502</v>
+        <v>0.8741374465384725</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9302690756340113</v>
+        <v>0.9298258378021621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>901</v>
@@ -5468,19 +5468,19 @@
         <v>962072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>945389</v>
+        <v>945450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>977978</v>
+        <v>976840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9380040087783367</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9217384991633637</v>
+        <v>0.9217973099291202</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9535116307807944</v>
+        <v>0.952402713718725</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>6769</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2805</v>
+        <v>2769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13492</v>
+        <v>13335</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02124899792698175</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008804971435613755</v>
+        <v>0.008693498812984424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04235310154941972</v>
+        <v>0.04186020677686409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -5593,19 +5593,19 @@
         <v>18651</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10745</v>
+        <v>11419</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28682</v>
+        <v>28478</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05545829554074873</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03194840915533687</v>
+        <v>0.03395382716485713</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08528343295298961</v>
+        <v>0.08467920566135424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -5614,19 +5614,19 @@
         <v>25420</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16921</v>
+        <v>16402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36711</v>
+        <v>35523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03881710224403759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02583907191795397</v>
+        <v>0.02504557546080655</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05605863888920701</v>
+        <v>0.05424432397793352</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>311796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305073</v>
+        <v>305230</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315760</v>
+        <v>315796</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9787510020730182</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9576468984505807</v>
+        <v>0.9581397932231385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911950285643863</v>
+        <v>0.9913065011870157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -5664,19 +5664,19 @@
         <v>317658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307627</v>
+        <v>307831</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325564</v>
+        <v>324890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9445417044592512</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9147165670470098</v>
+        <v>0.9153207943386459</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9680515908446631</v>
+        <v>0.9660461728351428</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -5685,19 +5685,19 @@
         <v>629454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618163</v>
+        <v>619351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637953</v>
+        <v>638472</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9611828977559624</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.943941361110793</v>
+        <v>0.9457556760220669</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9741609280820457</v>
+        <v>0.9749544245391936</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>33683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23857</v>
+        <v>23909</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46447</v>
+        <v>45112</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09104464713432364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06448571578290309</v>
+        <v>0.06462489116027111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1255434190061994</v>
+        <v>0.1219370983051732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -5810,19 +5810,19 @@
         <v>80242</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65171</v>
+        <v>64840</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96884</v>
+        <v>97583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2071931375463113</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1682782236649198</v>
+        <v>0.1674228366949429</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2501623636675406</v>
+        <v>0.2519671889209759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -5831,19 +5831,19 @@
         <v>113926</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94306</v>
+        <v>94695</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134218</v>
+        <v>136044</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1504471089049318</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1245384112867644</v>
+        <v>0.1250512676284714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1772445839643517</v>
+        <v>0.1796557932907535</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>336281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>323517</v>
+        <v>324852</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346107</v>
+        <v>346055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9089553528656764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8744565809938011</v>
+        <v>0.8780629016948266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.935514284217097</v>
+        <v>0.9353751088397285</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>284</v>
@@ -5881,19 +5881,19 @@
         <v>307041</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>290399</v>
+        <v>289700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322112</v>
+        <v>322443</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7928068624536887</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7498376363324591</v>
+        <v>0.7480328110790242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8317217763350796</v>
+        <v>0.832577163305057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>605</v>
@@ -5902,19 +5902,19 @@
         <v>643321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>623029</v>
+        <v>621203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>662941</v>
+        <v>662552</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8495528910950682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8227554160356486</v>
+        <v>0.8203442067092466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8754615887132355</v>
+        <v>0.8749487323715286</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>9821</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4885</v>
+        <v>4856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16679</v>
+        <v>17640</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04649523687658826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02312683217837856</v>
+        <v>0.02298900857563432</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07896528961175935</v>
+        <v>0.08351528064557445</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -6027,19 +6027,19 @@
         <v>16552</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9748</v>
+        <v>9881</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25693</v>
+        <v>26095</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07572321840434147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04459355728478424</v>
+        <v>0.0452038775229829</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1175405090222614</v>
+        <v>0.1193815571912576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -6048,19 +6048,19 @@
         <v>26373</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17520</v>
+        <v>17889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37103</v>
+        <v>36739</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0613596805911988</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04076186137548903</v>
+        <v>0.04162155496870876</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08632454808423903</v>
+        <v>0.08547880827577567</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>201400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194542</v>
+        <v>193581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206336</v>
+        <v>206365</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9535047631234117</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9210347103882403</v>
+        <v>0.9164847193544255</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9768731678216213</v>
+        <v>0.9770109914243656</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -6098,19 +6098,19 @@
         <v>202035</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192894</v>
+        <v>192492</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208839</v>
+        <v>208706</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9242767815956585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8824594909777389</v>
+        <v>0.8806184428087424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9554064427152158</v>
+        <v>0.9547961224770171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -6119,19 +6119,19 @@
         <v>403435</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>392705</v>
+        <v>393069</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412288</v>
+        <v>411919</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9386403194088012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9136754519157608</v>
+        <v>0.9145211917242243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.959238138624511</v>
+        <v>0.9583784450312912</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>19179</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11524</v>
+        <v>12161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28115</v>
+        <v>29120</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07289123193958828</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04379593668472406</v>
+        <v>0.04621641413207724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1068514905235333</v>
+        <v>0.1106720633313455</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -6244,19 +6244,19 @@
         <v>38201</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26906</v>
+        <v>26798</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50760</v>
+        <v>51730</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1398727880695303</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09851489713806474</v>
+        <v>0.09811867088594815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1858558511410545</v>
+        <v>0.1894075171360771</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -6265,19 +6265,19 @@
         <v>57381</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43685</v>
+        <v>42163</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73260</v>
+        <v>74003</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.107006061072702</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08146641479986377</v>
+        <v>0.0786273387742841</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1366182418106025</v>
+        <v>0.138003883624426</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>243944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235008</v>
+        <v>234003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251599</v>
+        <v>250962</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9271087680604118</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8931485094764672</v>
+        <v>0.8893279366686545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9562040633152762</v>
+        <v>0.9537835858679228</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>230</v>
@@ -6315,19 +6315,19 @@
         <v>234914</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>222355</v>
+        <v>221385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246209</v>
+        <v>246317</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8601272119304697</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8141441488589455</v>
+        <v>0.8105924828639228</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9014851028619353</v>
+        <v>0.9018813291140518</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>470</v>
@@ -6336,19 +6336,19 @@
         <v>478857</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462978</v>
+        <v>462235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>492553</v>
+        <v>494075</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8929939389272981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8633817581893976</v>
+        <v>0.8619961163755747</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9185335852001362</v>
+        <v>0.9213726612257159</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>42542</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30204</v>
+        <v>30595</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58438</v>
+        <v>58083</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06479495468339175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04600355892920702</v>
+        <v>0.04659844897943797</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08900623271342432</v>
+        <v>0.08846573663424585</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -6461,19 +6461,19 @@
         <v>89049</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73760</v>
+        <v>70376</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108475</v>
+        <v>109339</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1288144886509475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1066987045330268</v>
+        <v>0.1018038342140783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1569153754979943</v>
+        <v>0.1581657250481202</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>113</v>
@@ -6482,19 +6482,19 @@
         <v>131590</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110129</v>
+        <v>110729</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156527</v>
+        <v>155716</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09762965747374681</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08170700805764849</v>
+        <v>0.08215228323207872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1161310280324769</v>
+        <v>0.1155290834443939</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>614016</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>598120</v>
+        <v>598475</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>626354</v>
+        <v>625963</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9352050453166083</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9109937672865753</v>
+        <v>0.9115342633657542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.953996441070793</v>
+        <v>0.9534015510205621</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>569</v>
@@ -6532,19 +6532,19 @@
         <v>602245</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>582819</v>
+        <v>581955</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>617534</v>
+        <v>620918</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8711855113490525</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8430846245020056</v>
+        <v>0.8418342749518793</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8933012954669729</v>
+        <v>0.8981961657859213</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1113</v>
@@ -6553,19 +6553,19 @@
         <v>1216262</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1191325</v>
+        <v>1192136</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1237723</v>
+        <v>1237123</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9023703425262531</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.883868971967523</v>
+        <v>0.8844709165556061</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9182929919423516</v>
+        <v>0.9178477167679213</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>31806</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21769</v>
+        <v>21954</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44738</v>
+        <v>43168</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04085080499559054</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02796011982429852</v>
+        <v>0.02819749477772953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05746052724761667</v>
+        <v>0.05544484212548616</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -6678,19 +6678,19 @@
         <v>66753</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51078</v>
+        <v>51381</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83090</v>
+        <v>85291</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08079813152609935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06182515928932966</v>
+        <v>0.06219189263886033</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1005729941330961</v>
+        <v>0.10323706457713</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -6699,19 +6699,19 @@
         <v>98558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79830</v>
+        <v>80064</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120087</v>
+        <v>121716</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06141672680416515</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04974635050984103</v>
+        <v>0.04989191050246213</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07483203329600518</v>
+        <v>0.07584762855406914</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>746777</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>733845</v>
+        <v>735415</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>756814</v>
+        <v>756629</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9591491950044094</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9425394727523834</v>
+        <v>0.9445551578745138</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9720398801757014</v>
+        <v>0.9718025052222707</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>699</v>
@@ -6749,19 +6749,19 @@
         <v>759414</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>743077</v>
+        <v>740876</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>775089</v>
+        <v>774786</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9192018684739006</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8994270058669039</v>
+        <v>0.8967629354228694</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9381748407106704</v>
+        <v>0.9378081073611395</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1417</v>
@@ -6770,19 +6770,19 @@
         <v>1506192</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1484663</v>
+        <v>1483034</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1524920</v>
+        <v>1524686</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9385832731958349</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9251679667039948</v>
+        <v>0.9241523714459309</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.950253649490159</v>
+        <v>0.9501080894975381</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>205975</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>180179</v>
+        <v>177138</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>239070</v>
+        <v>234225</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06068173036960494</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05308202963644859</v>
+        <v>0.05218621363497108</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0704316135563418</v>
+        <v>0.06900440433799734</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>386</v>
@@ -6895,19 +6895,19 @@
         <v>432259</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>394496</v>
+        <v>390202</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>475555</v>
+        <v>477339</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1219504919011357</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1112968044537273</v>
+        <v>0.1100852129923712</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1341653060517832</v>
+        <v>0.1346688398454618</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>581</v>
@@ -6916,19 +6916,19 @@
         <v>638234</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>585778</v>
+        <v>590409</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>688745</v>
+        <v>687499</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09197918935397437</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08441959689155042</v>
+        <v>0.08508695632309336</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09925869205533623</v>
+        <v>0.09907903462254825</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3188375</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3155280</v>
+        <v>3160125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3214171</v>
+        <v>3217212</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9393182696303951</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9295683864436581</v>
+        <v>0.9309955956620025</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9469179703635514</v>
+        <v>0.9478137863650289</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2952</v>
@@ -6966,19 +6966,19 @@
         <v>3112283</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3068987</v>
+        <v>3067203</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3150046</v>
+        <v>3154340</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8780495080988643</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8658346939482168</v>
+        <v>0.8653311601545383</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8887031955462728</v>
+        <v>0.8899147870076288</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5988</v>
@@ -6987,19 +6987,19 @@
         <v>6300658</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6250147</v>
+        <v>6251393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6353114</v>
+        <v>6348483</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9080208106460256</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9007413079446637</v>
+        <v>0.9009209653774518</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9155804031084491</v>
+        <v>0.9149130436769066</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>7047</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3403</v>
+        <v>3167</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13602</v>
+        <v>13264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02210027999838883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01067406233007623</v>
+        <v>0.009931429526133535</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04265923945896861</v>
+        <v>0.04159881607939524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -7356,19 +7356,19 @@
         <v>10910</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7246</v>
+        <v>7165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17584</v>
+        <v>16812</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03451948860674477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02292633537467658</v>
+        <v>0.02266812162294953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05563447393314404</v>
+        <v>0.05319383661107416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -7377,19 +7377,19 @@
         <v>17957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12584</v>
+        <v>12272</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26798</v>
+        <v>26179</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02828264955770881</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0198195515719704</v>
+        <v>0.01932806640539731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04220835348861626</v>
+        <v>0.04123358444258065</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>311798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305243</v>
+        <v>305581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315442</v>
+        <v>315678</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9778997200016111</v>
+        <v>0.9778997200016113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9573407605410319</v>
+        <v>0.9584011839206047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9893259376699238</v>
+        <v>0.9900685704738669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>517</v>
@@ -7427,19 +7427,19 @@
         <v>305151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298477</v>
+        <v>299249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308815</v>
+        <v>308896</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9654805113932554</v>
+        <v>0.9654805113932552</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.944365526066856</v>
+        <v>0.9468061633889259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9770736646253235</v>
+        <v>0.9773318783770505</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>840</v>
@@ -7448,19 +7448,19 @@
         <v>616949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>608108</v>
+        <v>608727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622322</v>
+        <v>622634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9717173504422913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9577916465113836</v>
+        <v>0.9587664155574195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9801804484280294</v>
+        <v>0.9806719335946028</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>40363</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28668</v>
+        <v>27742</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57330</v>
+        <v>57577</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07606395973730197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05402386094601561</v>
+        <v>0.0522791138579573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1080369869484179</v>
+        <v>0.1085040435786299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -7573,19 +7573,19 @@
         <v>58942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48400</v>
+        <v>47475</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73194</v>
+        <v>71798</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.10785444202266</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08856525101740491</v>
+        <v>0.08687109483384288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1339331451737152</v>
+        <v>0.131379777250773</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -7594,19 +7594,19 @@
         <v>99305</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81944</v>
+        <v>82749</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119655</v>
+        <v>121174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09219305810892808</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07607548622784499</v>
+        <v>0.07682319729922124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1110859439924496</v>
+        <v>0.1124960860052101</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>490284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473317</v>
+        <v>473070</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501979</v>
+        <v>502905</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9239360402626979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8919630130515819</v>
+        <v>0.89149595642137</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9459761390539847</v>
+        <v>0.9477208861420426</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>634</v>
@@ -7644,19 +7644,19 @@
         <v>487552</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473300</v>
+        <v>474696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498094</v>
+        <v>499019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8921455579773401</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8660668548262851</v>
+        <v>0.8686202227492275</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9114347489825951</v>
+        <v>0.9131289051661572</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>983</v>
@@ -7665,19 +7665,19 @@
         <v>977836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>957486</v>
+        <v>955967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>995197</v>
+        <v>994392</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.907806941891072</v>
+        <v>0.9078069418910719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8889140560075504</v>
+        <v>0.88750391399479</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9239245137721549</v>
+        <v>0.9231768027007787</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>17377</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11475</v>
+        <v>11196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26134</v>
+        <v>25732</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05499309019219854</v>
+        <v>0.05499309019219856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0363148756744526</v>
+        <v>0.0354315275588074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08270592631731646</v>
+        <v>0.08143237910080574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -7790,19 +7790,19 @@
         <v>30702</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23234</v>
+        <v>22437</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39985</v>
+        <v>40223</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08628614284052744</v>
+        <v>0.08628614284052746</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06529757387385958</v>
+        <v>0.06305800178951072</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1123756157028713</v>
+        <v>0.1130422500672573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -7811,19 +7811,19 @@
         <v>48080</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37704</v>
+        <v>38104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60064</v>
+        <v>61074</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07156717567765765</v>
+        <v>0.07156717567765766</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05612332268439992</v>
+        <v>0.05671750000256705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08940626020305402</v>
+        <v>0.090908670159407</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>298616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289859</v>
+        <v>290261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304518</v>
+        <v>304797</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9450069098078014</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9172940736826837</v>
+        <v>0.9185676208991941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9636851243255474</v>
+        <v>0.9645684724411924</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>483</v>
@@ -7861,19 +7861,19 @@
         <v>325118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>315835</v>
+        <v>315597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332586</v>
+        <v>333383</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9137138571594725</v>
+        <v>0.9137138571594726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.887624384297129</v>
+        <v>0.8869577499327428</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9347024261261404</v>
+        <v>0.9369419982104895</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>821</v>
@@ -7882,19 +7882,19 @@
         <v>623733</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>611749</v>
+        <v>610739</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634109</v>
+        <v>633709</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9284328243223423</v>
+        <v>0.9284328243223424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9105937397969459</v>
+        <v>0.9090913298405932</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9438766773156001</v>
+        <v>0.9432824999974329</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>20979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13194</v>
+        <v>13521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34067</v>
+        <v>34028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05640352665432077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03547183443952182</v>
+        <v>0.03635367086529388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09159097571235247</v>
+        <v>0.09148846464381519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -8007,19 +8007,19 @@
         <v>48628</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37003</v>
+        <v>37571</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64442</v>
+        <v>64220</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1152431291195784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08769300655430354</v>
+        <v>0.0890393453714651</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1527199208883825</v>
+        <v>0.1521935201114464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -8028,19 +8028,19 @@
         <v>69607</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54492</v>
+        <v>54676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90362</v>
+        <v>87522</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08767684878656974</v>
+        <v>0.08767684878656973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06863814605641018</v>
+        <v>0.06886938926398259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1138199120952419</v>
+        <v>0.1102425922116767</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>350964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337876</v>
+        <v>337915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>358749</v>
+        <v>358422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9435964733456793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9084090242876472</v>
+        <v>0.9085115353561853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9645281655604782</v>
+        <v>0.9636463291347062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>532</v>
@@ -8078,19 +8078,19 @@
         <v>373333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>357519</v>
+        <v>357741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384958</v>
+        <v>384390</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8847568708804217</v>
+        <v>0.8847568708804218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8472800791116175</v>
+        <v>0.8478064798885536</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9123069934456963</v>
+        <v>0.9109606546285349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>801</v>
@@ -8099,19 +8099,19 @@
         <v>724298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>703543</v>
+        <v>706383</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>739413</v>
+        <v>739229</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9123231512134305</v>
+        <v>0.9123231512134302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8861800879047578</v>
+        <v>0.8897574077883232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9313618539435897</v>
+        <v>0.9311306107360173</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>5736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2944</v>
+        <v>2816</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10653</v>
+        <v>10457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02788762821147108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01431678377312093</v>
+        <v>0.01369199868370757</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05179732686378379</v>
+        <v>0.05084506334981771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -8224,19 +8224,19 @@
         <v>20153</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15324</v>
+        <v>15372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26567</v>
+        <v>26344</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08893159837274137</v>
+        <v>0.08893159837274134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06761981813207291</v>
+        <v>0.06783255463947788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.117235514576438</v>
+        <v>0.1162488863357024</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -8245,19 +8245,19 @@
         <v>25889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19873</v>
+        <v>20151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32750</v>
+        <v>32853</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05988874836080497</v>
+        <v>0.05988874836080498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04597196360814457</v>
+        <v>0.04661536677124244</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07576149500205512</v>
+        <v>0.07599933666286579</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>199929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195012</v>
+        <v>195208</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202721</v>
+        <v>202849</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9721123717885288</v>
+        <v>0.9721123717885289</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9482026731362163</v>
+        <v>0.9491549366501839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.985683216226879</v>
+        <v>0.9863080013162926</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>441</v>
@@ -8295,19 +8295,19 @@
         <v>206461</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200047</v>
+        <v>200270</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211290</v>
+        <v>211242</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9110684016272588</v>
+        <v>0.9110684016272587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8827644854235621</v>
+        <v>0.8837511136642985</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9323801818679273</v>
+        <v>0.9321674453605223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>710</v>
@@ -8316,19 +8316,19 @@
         <v>406389</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>399528</v>
+        <v>399425</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412405</v>
+        <v>412127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.940111251639195</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9242385049979448</v>
+        <v>0.9240006633371343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9540280363918553</v>
+        <v>0.9533846332287575</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>15008</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9821</v>
+        <v>9827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21838</v>
+        <v>22807</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05544118616792432</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0362808653991052</v>
+        <v>0.03630188035695447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0806684787429264</v>
+        <v>0.08424859243294078</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -8441,19 +8441,19 @@
         <v>21816</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15856</v>
+        <v>16025</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28515</v>
+        <v>28983</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08271350349988471</v>
+        <v>0.08271350349988466</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0601163142230245</v>
+        <v>0.06075745188109582</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1081145975706905</v>
+        <v>0.1098887778228249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -8462,19 +8462,19 @@
         <v>36824</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29211</v>
+        <v>28765</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46992</v>
+        <v>46258</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06889985170639371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05465556684292673</v>
+        <v>0.05382131389194958</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08792459765433003</v>
+        <v>0.08655178580425202</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>255699</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248869</v>
+        <v>247900</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260886</v>
+        <v>260880</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9445588138320757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9193315212570735</v>
+        <v>0.9157514075670591</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.963719134600895</v>
+        <v>0.9636981196430455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>412</v>
@@ -8512,19 +8512,19 @@
         <v>241934</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235235</v>
+        <v>234767</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247894</v>
+        <v>247725</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9172864965001155</v>
+        <v>0.9172864965001152</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8918854024293097</v>
+        <v>0.8901112221771754</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9398836857769758</v>
+        <v>0.9392425481189043</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>758</v>
@@ -8533,19 +8533,19 @@
         <v>497633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>487465</v>
+        <v>488199</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>505246</v>
+        <v>505692</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9311001482936063</v>
+        <v>0.9311001482936062</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.91207540234567</v>
+        <v>0.9134482141957481</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9453444331570733</v>
+        <v>0.9461786861080506</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>60411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44451</v>
+        <v>44155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80058</v>
+        <v>78405</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08394055058186739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06176410137094061</v>
+        <v>0.06135346321730666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1112393374560948</v>
+        <v>0.108943303951414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>150</v>
@@ -8658,19 +8658,19 @@
         <v>118166</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100322</v>
+        <v>100079</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137456</v>
+        <v>138470</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1531907026440787</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1300581540005638</v>
+        <v>0.1297430434076632</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1781983287207179</v>
+        <v>0.1795124334367585</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>201</v>
@@ -8679,19 +8679,19 @@
         <v>178577</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>155287</v>
+        <v>155060</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208126</v>
+        <v>207354</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1197657132906551</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1041461119962927</v>
+        <v>0.1039933451132243</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1395829669593432</v>
+        <v>0.139065162641255</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>659276</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>639629</v>
+        <v>641282</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>675236</v>
+        <v>675532</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9160594494181328</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8887606625439054</v>
+        <v>0.8910566960485869</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9382358986290597</v>
+        <v>0.9386465367826937</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>809</v>
@@ -8729,19 +8729,19 @@
         <v>653200</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>633910</v>
+        <v>632896</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>671044</v>
+        <v>671287</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.846809297355921</v>
+        <v>0.8468092973559213</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8218016712792819</v>
+        <v>0.8204875665632416</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8699418459994359</v>
+        <v>0.8702569565923367</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1357</v>
@@ -8750,19 +8750,19 @@
         <v>1312476</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1282927</v>
+        <v>1283699</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1335766</v>
+        <v>1335993</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8802342867093448</v>
+        <v>0.8802342867093451</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8604170330406568</v>
+        <v>0.8609348373587448</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8958538880037072</v>
+        <v>0.8960066548867756</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>46188</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36161</v>
+        <v>35433</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60410</v>
+        <v>60247</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05787484237233928</v>
+        <v>0.05787484237233927</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04530999862873687</v>
+        <v>0.04439854597563443</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07569510816206812</v>
+        <v>0.07549079073274184</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>187</v>
@@ -8875,19 +8875,19 @@
         <v>128691</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110986</v>
+        <v>113173</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146025</v>
+        <v>145301</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1549117576843981</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1335988370353785</v>
+        <v>0.1362319548414623</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1757777035349633</v>
+        <v>0.1749060851831241</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>241</v>
@@ -8896,19 +8896,19 @@
         <v>174880</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>152989</v>
+        <v>153633</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>199152</v>
+        <v>197742</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1073663719757351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09392652461376827</v>
+        <v>0.09432208705977346</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1222683637562666</v>
+        <v>0.121402433388409</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>751884</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>737662</v>
+        <v>737825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>761911</v>
+        <v>762639</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9421251576276606</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.924304891837932</v>
+        <v>0.9245092092672581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9546900013712631</v>
+        <v>0.9556014540243656</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>874</v>
@@ -8946,19 +8946,19 @@
         <v>702048</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>684714</v>
+        <v>685438</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>719753</v>
+        <v>717566</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.845088242315602</v>
+        <v>0.8450882423156019</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8242222964650366</v>
+        <v>0.8250939148168758</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8664011629646214</v>
+        <v>0.8637680451585377</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1582</v>
@@ -8967,19 +8967,19 @@
         <v>1453931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1429659</v>
+        <v>1431069</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1475822</v>
+        <v>1475178</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8926336280242649</v>
+        <v>0.8926336280242648</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8777316362437334</v>
+        <v>0.8785975666115908</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9060734753862317</v>
+        <v>0.9056779129402265</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>213109</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>182929</v>
+        <v>186174</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>244070</v>
+        <v>246636</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06034418047230313</v>
+        <v>0.06034418047230312</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05179837951076721</v>
+        <v>0.05271725443414551</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06911117552960751</v>
+        <v>0.06983770990662558</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>657</v>
@@ -9092,19 +9092,19 @@
         <v>438009</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>406283</v>
+        <v>407704</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>471164</v>
+        <v>476848</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1173403636037138</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1088412833356539</v>
+        <v>0.1092219723121166</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.126222377323017</v>
+        <v>0.1277452635284213</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>881</v>
@@ -9113,19 +9113,19 @@
         <v>651118</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>603977</v>
+        <v>605254</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>695676</v>
+        <v>698827</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08963175711066647</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08314243605570952</v>
+        <v>0.08331820475284615</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09576551880940681</v>
+        <v>0.09619926319098088</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3318451</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3287490</v>
+        <v>3284924</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3348631</v>
+        <v>3345386</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9396558195276971</v>
+        <v>0.9396558195276968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9308888244703925</v>
+        <v>0.9301622900933747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9482016204892325</v>
+        <v>0.9472827455658545</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4702</v>
@@ -9163,19 +9163,19 @@
         <v>3294797</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3261642</v>
+        <v>3255958</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3326523</v>
+        <v>3325102</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8826596363962862</v>
+        <v>0.8826596363962861</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8737776226769832</v>
+        <v>0.8722547364715787</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8911587166643468</v>
+        <v>0.8907780276878834</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7852</v>
@@ -9184,19 +9184,19 @@
         <v>6613248</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6568690</v>
+        <v>6565539</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6660389</v>
+        <v>6659112</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9103682428893336</v>
+        <v>0.9103682428893333</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9042344811905934</v>
+        <v>0.9038007368090192</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9168575639442904</v>
+        <v>0.916681795247154</v>
       </c>
     </row>
     <row r="30">
